--- a/resultaten_ST.xlsx
+++ b/resultaten_ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\famil\Documents\School\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827843BE-7932-4D39-B4A5-7ECA3B85C3DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7D72BF-3494-4B28-8A8E-4C39818DC8C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2CF797C7-C81A-43AF-B0DD-3DD9FD5124A7}"/>
   </bookViews>
